--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2349.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2349.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9456191214562182</v>
+        <v>1.000699520111084</v>
       </c>
       <c r="B1">
-        <v>1.491275366287239</v>
+        <v>2.111485719680786</v>
       </c>
       <c r="C1">
-        <v>3.379685960498645</v>
+        <v>6.855403423309326</v>
       </c>
       <c r="D1">
-        <v>2.541961029057481</v>
+        <v>1.998162150382996</v>
       </c>
       <c r="E1">
-        <v>1.170339989909877</v>
+        <v>1.373103618621826</v>
       </c>
     </row>
   </sheetData>
